--- a/Hardware/Stückliste.xlsx
+++ b/Hardware/Stückliste.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\OneDrive\pro4E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgaer\Google Drive\Fachhochschule\4.Semester\pro4E\gitHub\pro4e\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B0E2E4A6-5A1E-46D3-A23C-51014EAE5F77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{76C0D1E7-02E0-4D46-85C4-36BA4E541916}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3762A8D5-26CA-4B15-B084-A3B9692515E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Position</t>
   </si>
@@ -112,6 +112,85 @@
   </si>
   <si>
     <t>Summe:</t>
+  </si>
+  <si>
+    <t>LP2985A-33DBVR</t>
+  </si>
+  <si>
+    <t>296-18479-1-ND</t>
+  </si>
+  <si>
+    <t>TPS565208DDCR</t>
+  </si>
+  <si>
+    <t>3V3 DC/DC Wandler</t>
+  </si>
+  <si>
+    <t>5V DC/DC Wandler</t>
+  </si>
+  <si>
+    <t>296-48755-1-ND</t>
+  </si>
+  <si>
+    <t>C3216X5R0J226M085AC</t>
+  </si>
+  <si>
+    <t>445-7717-1-ND</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5V DC/DC Wandler</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5V DC/DC Wandler</t>
+    </r>
+  </si>
+  <si>
+    <t>732-1151-1-ND</t>
   </si>
 </sst>
 </file>
@@ -121,8 +200,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -150,12 +237,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -469,23 +559,23 @@
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.84375" customWidth="1"/>
+    <col min="2" max="2" width="10.3828125" customWidth="1"/>
+    <col min="3" max="3" width="20.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.15234375" customWidth="1"/>
+    <col min="5" max="5" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.53515625" customWidth="1"/>
+    <col min="9" max="9" width="12.3046875" customWidth="1"/>
+    <col min="10" max="10" width="10.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -514,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -544,7 +634,7 @@
         <v>55.33</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -574,7 +664,7 @@
         <v>36.756</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -604,7 +694,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -634,7 +724,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -664,47 +754,127 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.42</v>
+      </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.7</v>
+      </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3">
+        <v>744311220</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3.49</v>
+      </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -714,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -724,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -734,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -744,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -754,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -764,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -774,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -784,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -794,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -804,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -814,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -824,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -834,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -844,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -854,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -864,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -874,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -884,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -894,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -904,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -914,13 +1084,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.4">
       <c r="I34" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="2">
         <f>SUM(J3:J33)</f>
-        <v>110.846</v>
+        <v>131.48600000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Stückliste.xlsx
+++ b/Hardware/Stückliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgaer\Google Drive\Fachhochschule\4.Semester\pro4E\gitHub\pro4e\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3762A8D5-26CA-4B15-B084-A3B9692515E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6C0830-7B43-4115-9279-1CFBA042016F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Position</t>
   </si>
@@ -191,6 +191,45 @@
   </si>
   <si>
     <t>732-1151-1-ND</t>
+  </si>
+  <si>
+    <t>Getriebemotor 12 V</t>
+  </si>
+  <si>
+    <t>Conrad</t>
+  </si>
+  <si>
+    <t>IG320005-3AC21R</t>
+  </si>
+  <si>
+    <t>234253 - UP</t>
+  </si>
+  <si>
+    <t>4S LiPo Akku 500mAh</t>
+  </si>
+  <si>
+    <t>Hobbyking</t>
+  </si>
+  <si>
+    <t>9067000341-0</t>
+  </si>
+  <si>
+    <t>4mm Gold-Steckverbinder 10 Stk.</t>
+  </si>
+  <si>
+    <t>servo technica</t>
+  </si>
+  <si>
+    <t>SVTS C 03-X-A-00/06</t>
+  </si>
+  <si>
+    <t>Schleifring</t>
+  </si>
+  <si>
+    <t>DL-Volt-Alarm</t>
+  </si>
+  <si>
+    <t>Lipoly Niederspannungs-Warnung (2s ~ 4s)</t>
   </si>
 </sst>
 </file>
@@ -559,14 +598,14 @@
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.84375" customWidth="1"/>
     <col min="2" max="2" width="10.3828125" customWidth="1"/>
-    <col min="3" max="3" width="20.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.4609375" customWidth="1"/>
     <col min="4" max="4" width="21.15234375" customWidth="1"/>
     <col min="5" max="5" width="15.15234375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.84375" bestFit="1" customWidth="1"/>
@@ -878,46 +917,132 @@
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>27.95</v>
+      </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>30.12</v>
+      </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.12</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3">
+        <v>15000068</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3.16</v>
+      </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2.63</v>
+      </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>14</v>
       </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
@@ -1090,7 +1215,7 @@
       </c>
       <c r="J34" s="2">
         <f>SUM(J3:J33)</f>
-        <v>131.48600000000002</v>
+        <v>195.346</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Stückliste.xlsx
+++ b/Hardware/Stückliste.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgaer\Google Drive\Fachhochschule\4.Semester\pro4E\gitHub\pro4e\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\pro4e\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6C0830-7B43-4115-9279-1CFBA042016F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE4BCD-920A-4FF4-A5AE-2B397946102E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -598,23 +598,23 @@
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.84375" customWidth="1"/>
-    <col min="2" max="2" width="10.3828125" customWidth="1"/>
-    <col min="3" max="3" width="36.4609375" customWidth="1"/>
-    <col min="4" max="4" width="21.15234375" customWidth="1"/>
-    <col min="5" max="5" width="15.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.53515625" customWidth="1"/>
-    <col min="9" max="9" width="12.3046875" customWidth="1"/>
-    <col min="10" max="10" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -673,7 +673,7 @@
         <v>55.33</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -703,7 +703,7 @@
         <v>36.756</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -733,7 +733,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -763,7 +763,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -793,7 +793,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -853,7 +853,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -883,7 +883,7 @@
         <v>4.1999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -913,7 +913,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -943,7 +943,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -970,7 +970,7 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -997,7 +997,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
         <v>26</v>
       </c>

--- a/Hardware/Stückliste.xlsx
+++ b/Hardware/Stückliste.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgaer\Google Drive\Fachhochschule\4.Semester\pro4E\gitHub\pro4e\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenny\Documents\GitHub\pro4e\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6C0830-7B43-4115-9279-1CFBA042016F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22C45A9-5EB2-496B-9D2A-52842F645351}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12558" yWindow="3591" windowWidth="18150" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Position</t>
   </si>
@@ -230,6 +230,27 @@
   </si>
   <si>
     <t>Lipoly Niederspannungs-Warnung (2s ~ 4s)</t>
+  </si>
+  <si>
+    <t>RES SMD 91 OHM 5% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>RC0402JR-0791RL</t>
+  </si>
+  <si>
+    <t>311-91JRCT-ND</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RES SMD 150 OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>RC0402FR-07150RL</t>
+  </si>
+  <si>
+    <t>311-150LRCT-ND</t>
   </si>
 </sst>
 </file>
@@ -597,24 +618,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.84375" customWidth="1"/>
-    <col min="2" max="2" width="10.3828125" customWidth="1"/>
-    <col min="3" max="3" width="36.4609375" customWidth="1"/>
-    <col min="4" max="4" width="21.15234375" customWidth="1"/>
-    <col min="5" max="5" width="15.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.53515625" customWidth="1"/>
-    <col min="9" max="9" width="12.3046875" customWidth="1"/>
-    <col min="10" max="10" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -643,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -673,7 +694,7 @@
         <v>55.33</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -703,7 +724,7 @@
         <v>36.756</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -733,7 +754,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -763,7 +784,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -793,7 +814,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -823,7 +844,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -853,7 +874,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:10" ht="16.399999999999999" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -883,7 +904,7 @@
         <v>4.1999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:10" ht="16.399999999999999" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -913,7 +934,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -943,7 +964,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -970,7 +991,7 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -997,7 +1018,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1024,7 +1045,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1049,27 +1070,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="H17">
+        <v>250</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5.1999999999999998E-3</v>
+      </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>150</v>
+      </c>
+      <c r="I18" s="2">
+        <v>6.3E-3</v>
+      </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+        <v>0.94500000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1079,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1089,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1099,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1109,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1119,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1129,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -1139,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -1149,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -1159,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -1169,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -1179,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -1189,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -1199,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -1209,13 +1270,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I34" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="2">
         <f>SUM(J3:J33)</f>
-        <v>195.346</v>
+        <v>197.59100000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Stückliste.xlsx
+++ b/Hardware/Stückliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenny\Documents\GitHub\pro4e\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22C45A9-5EB2-496B-9D2A-52842F645351}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582594D6-51D0-4824-8A79-3B4B8C9A1140}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12558" yWindow="3591" windowWidth="18150" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5788" yWindow="2225" windowWidth="18150" windowHeight="10651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Position</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>311-150LRCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yageo </t>
   </si>
 </sst>
 </file>
@@ -618,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1111,7 +1114,7 @@
         <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
         <v>57</v>

--- a/Hardware/Stückliste.xlsx
+++ b/Hardware/Stückliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenny\Documents\GitHub\pro4e\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\pro4e\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582594D6-51D0-4824-8A79-3B4B8C9A1140}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965344B2-75E9-45EC-B91A-7CBE7B782670}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5788" yWindow="2225" windowWidth="18150" windowHeight="10651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Position</t>
   </si>
@@ -241,9 +241,6 @@
     <t>311-91JRCT-ND</t>
   </si>
   <si>
-    <t>Yageo</t>
-  </si>
-  <si>
     <t>RES SMD 150 OHM 1% 1/16W 0402</t>
   </si>
   <si>
@@ -253,7 +250,13 @@
     <t>311-150LRCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">Yageo </t>
+    <t>Hallsensor</t>
+  </si>
+  <si>
+    <t>TLE49062KHTSA1</t>
+  </si>
+  <si>
+    <t>TLE49062KHTSA1CT-ND</t>
   </si>
 </sst>
 </file>
@@ -622,23 +625,23 @@
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -667,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -697,7 +700,7 @@
         <v>55.33</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -727,7 +730,7 @@
         <v>36.756</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -757,7 +760,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -787,7 +790,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -817,7 +820,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -847,7 +850,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -877,7 +880,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="16.399999999999999" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -907,7 +910,7 @@
         <v>4.1999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="16.399999999999999" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -937,7 +940,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -967,7 +970,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -994,7 +997,7 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
@@ -1103,21 +1106,21 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
       </c>
       <c r="G18">
         <v>100</v>
@@ -1133,17 +1136,37 @@
         <v>0.94500000000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.99</v>
+      </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+        <v>2.9699999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1153,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1163,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1173,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1183,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1193,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -1203,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -1213,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -1223,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -1233,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -1243,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -1253,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -1263,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -1273,13 +1296,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="2">
         <f>SUM(J3:J33)</f>
-        <v>197.59100000000001</v>
+        <v>200.56100000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Stückliste.xlsx
+++ b/Hardware/Stückliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\pro4e\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965344B2-75E9-45EC-B91A-7CBE7B782670}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC74EA8-CAE6-4204-AC77-DA5A11B54CFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,7 +625,7 @@
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Hardware/Stückliste.xlsx
+++ b/Hardware/Stückliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\pro4e\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\GitHub\pro4e\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC74EA8-CAE6-4204-AC77-DA5A11B54CFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85193D8-7A9D-41CA-9DBE-ECA9D593F1DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Position</t>
   </si>
@@ -257,6 +257,24 @@
   </si>
   <si>
     <t>TLE49062KHTSA1CT-ND</t>
+  </si>
+  <si>
+    <t>Mikrophon</t>
+  </si>
+  <si>
+    <t>POM-3535P-3-R</t>
+  </si>
+  <si>
+    <t>668-1425-ND</t>
+  </si>
+  <si>
+    <t>Verstärker</t>
+  </si>
+  <si>
+    <t>LMV796MF/NOPB</t>
+  </si>
+  <si>
+    <t>LMV796MF/NOPBCT-ND</t>
   </si>
 </sst>
 </file>
@@ -624,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,20 +1188,60 @@
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2.13</v>
+      </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.46</v>
+      </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1302,7 +1360,7 @@
       </c>
       <c r="J34" s="2">
         <f>SUM(J3:J33)</f>
-        <v>200.56100000000001</v>
+        <v>207.74099999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Stückliste.xlsx
+++ b/Hardware/Stückliste.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\GitHub\pro4e\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgaer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85193D8-7A9D-41CA-9DBE-ECA9D593F1DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1385467C-4404-4F2D-A266-9B641AC83CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t>Position</t>
   </si>
@@ -114,85 +114,9 @@
     <t>Summe:</t>
   </si>
   <si>
-    <t>LP2985A-33DBVR</t>
-  </si>
-  <si>
-    <t>296-18479-1-ND</t>
-  </si>
-  <si>
-    <t>TPS565208DDCR</t>
-  </si>
-  <si>
-    <t>3V3 DC/DC Wandler</t>
-  </si>
-  <si>
     <t>5V DC/DC Wandler</t>
   </si>
   <si>
-    <t>296-48755-1-ND</t>
-  </si>
-  <si>
-    <t>C3216X5R0J226M085AC</t>
-  </si>
-  <si>
-    <t>445-7717-1-ND</t>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Out</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 5V DC/DC Wandler</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Out</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 5V DC/DC Wandler</t>
-    </r>
-  </si>
-  <si>
-    <t>732-1151-1-ND</t>
-  </si>
-  <si>
     <t>Getriebemotor 12 V</t>
   </si>
   <si>
@@ -257,6 +181,99 @@
   </si>
   <si>
     <t>TLE49062KHTSA1CT-ND</t>
+  </si>
+  <si>
+    <t>TLV70233DBVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296-32415-1-ND </t>
+  </si>
+  <si>
+    <t>3V3 Spannungsregler</t>
+  </si>
+  <si>
+    <t>LMZ12008TZE/NOPB</t>
+  </si>
+  <si>
+    <t>296-48322-1-ND</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF5621V</t>
+  </si>
+  <si>
+    <t>5.62 kOhm Widerstand 1% 0.125W 0805</t>
+  </si>
+  <si>
+    <t>1.07 kOhm Widerstand 1% 0.125W 0805</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF1071V</t>
+  </si>
+  <si>
+    <t>P1.07KCCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF4222V</t>
+  </si>
+  <si>
+    <t>42.2 kOhm Widerstand 1% 0.125W 0805</t>
+  </si>
+  <si>
+    <t>P42.2KCCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF1272V</t>
+  </si>
+  <si>
+    <t>12.7 kOhm Widerstand 1% 0.125W 0805</t>
+  </si>
+  <si>
+    <t>P12.7KCCT-ND</t>
+  </si>
+  <si>
+    <t>CC1206KRX7R9BB473</t>
+  </si>
+  <si>
+    <t>311-1178-1-ND</t>
+  </si>
+  <si>
+    <t>UMK325BJ106MM-T</t>
+  </si>
+  <si>
+    <t>587-2225-1-ND</t>
+  </si>
+  <si>
+    <t>0.047 uF Kondensator 10% 50V X7R 1206</t>
+  </si>
+  <si>
+    <t>T520D337M006ATE015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330 uf Kondensator 20% 6.3V </t>
+  </si>
+  <si>
+    <t>399-4052-1-ND</t>
+  </si>
+  <si>
+    <t>10 uF Kondensator 20% 50V X5R 1210</t>
+  </si>
+  <si>
+    <t>0805YC474KAT2A</t>
+  </si>
+  <si>
+    <t>478-1403-1-ND</t>
+  </si>
+  <si>
+    <t>0.47 uF Kondensator 10% 16V X7R 0805</t>
+  </si>
+  <si>
+    <t>CC0805KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>311-1140-1-ND</t>
+  </si>
+  <si>
+    <t>1 uF Kondensator 10% 50V X7R 0805</t>
   </si>
   <si>
     <t>Mikrophon</t>
@@ -284,16 +301,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -642,24 +651,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.84375" customWidth="1"/>
+    <col min="2" max="2" width="10.3828125" customWidth="1"/>
+    <col min="3" max="3" width="36.3828125" customWidth="1"/>
+    <col min="4" max="4" width="21.15234375" customWidth="1"/>
+    <col min="5" max="5" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.3828125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3828125" customWidth="1"/>
+    <col min="9" max="9" width="12.3046875" customWidth="1"/>
+    <col min="10" max="10" width="10.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -688,7 +697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -718,7 +727,7 @@
         <v>55.33</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -748,7 +757,7 @@
         <v>36.756</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -778,7 +787,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -808,7 +817,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -838,483 +847,623 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>0.56999999999999995</v>
+        <v>27.95</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J8:J19" si="1">H8*I8</f>
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>30.12</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>30.12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15000068</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>200</v>
+      </c>
+      <c r="H13">
+        <v>250</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>150</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6.3E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.94500000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="I9" s="2">
-        <v>1.42</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="I15" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9699999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>14.69</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>29.38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>4.26</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>2</v>
       </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1999999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3">
-        <v>744311220</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3.49</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>10.47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>27.95</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>27.95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>30.12</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>30.12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="3">
-        <v>15000068</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>3.16</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2.63</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17">
-        <v>200</v>
-      </c>
-      <c r="H17">
-        <v>250</v>
-      </c>
-      <c r="I17" s="2">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <v>150</v>
-      </c>
-      <c r="I18" s="2">
-        <v>6.3E-3</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.94500000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9699999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20" s="2">
-        <v>2.13</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="0"/>
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="I28" s="2">
         <v>1.46</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>2.92</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>21</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>23</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>24</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>25</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <v>26</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -1324,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -1334,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -1344,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -1354,13 +1503,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.4">
       <c r="I34" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="2">
         <f>SUM(J3:J33)</f>
-        <v>207.74099999999999</v>
+        <v>238.71099999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Stückliste.xlsx
+++ b/Hardware/Stückliste.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgaer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\pro4e\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1385467C-4404-4F2D-A266-9B641AC83CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85EBEE8-A6C4-4D3C-92C0-0C92F47FD0A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>Position</t>
   </si>
@@ -292,6 +292,33 @@
   </si>
   <si>
     <t>LMV796MF/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>Quarzoszillator</t>
+  </si>
+  <si>
+    <t>TSX-3225 24.0000MF10Z-C3</t>
+  </si>
+  <si>
+    <t>SER4373CT-ND</t>
+  </si>
+  <si>
+    <t>0603N300J500CT</t>
+  </si>
+  <si>
+    <t>1292-1515-1-ND</t>
+  </si>
+  <si>
+    <t>30pF Kondensator 5% 50V 0603</t>
+  </si>
+  <si>
+    <t>C0603C104M4RACTU</t>
+  </si>
+  <si>
+    <t>100nF Kondensator 20% 16V 0603</t>
+  </si>
+  <si>
+    <t>399-1099-1-ND</t>
   </si>
 </sst>
 </file>
@@ -652,23 +679,23 @@
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.84375" customWidth="1"/>
-    <col min="2" max="2" width="10.3828125" customWidth="1"/>
-    <col min="3" max="3" width="36.3828125" customWidth="1"/>
-    <col min="4" max="4" width="21.15234375" customWidth="1"/>
-    <col min="5" max="5" width="15.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.3828125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3828125" customWidth="1"/>
-    <col min="9" max="9" width="12.3046875" customWidth="1"/>
-    <col min="10" max="10" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -697,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -727,7 +754,7 @@
         <v>55.33</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -757,7 +784,7 @@
         <v>36.756</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -787,7 +814,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -817,7 +844,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -847,7 +874,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -877,7 +904,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -904,7 +931,7 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -931,7 +958,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -958,7 +985,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -983,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1013,7 +1040,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1043,7 +1070,7 @@
         <v>0.94500000000000006</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1073,7 +1100,7 @@
         <v>2.9699999999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1103,7 +1130,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1133,7 +1160,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1163,7 +1190,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1193,7 +1220,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1223,7 +1250,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1253,7 +1280,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1283,7 +1310,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1313,7 +1340,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1343,7 +1370,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -1373,7 +1400,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -1403,7 +1430,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -1433,7 +1460,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -1463,37 +1490,97 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>27</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.35</v>
+      </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>29</v>
       </c>
-      <c r="I31" s="2"/>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+        <v>1.7500000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -1503,13 +1590,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="2">
         <f>SUM(J3:J33)</f>
-        <v>238.71099999999998</v>
+        <v>241.66099999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Stückliste.xlsx
+++ b/Hardware/Stückliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\pro4e\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85EBEE8-A6C4-4D3C-92C0-0C92F47FD0A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7039DA2-83CE-4BCE-8C39-AB24A075F7FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,7 +679,7 @@
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Hardware/Stückliste.xlsx
+++ b/Hardware/Stückliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\pro4e\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenny\Documents\GitHub\pro4e\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7039DA2-83CE-4BCE-8C39-AB24A075F7FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80069CDB-D6A8-4AB2-8F9C-64C33A4606EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8180" yWindow="450" windowWidth="19200" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
     <t>Position</t>
   </si>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>399-1099-1-ND</t>
+  </si>
+  <si>
+    <t>XTAL OSC XO 6.0000MHZ CMOS TTL</t>
+  </si>
+  <si>
+    <t>SG-615P 6.0000MC0:ROHS</t>
+  </si>
+  <si>
+    <t>SER2207CT-ND</t>
   </si>
 </sst>
 </file>
@@ -678,24 +687,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="36.453125" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -724,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -754,7 +763,7 @@
         <v>55.33</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -784,7 +793,7 @@
         <v>36.756</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -814,7 +823,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -844,7 +853,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -874,7 +883,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -904,7 +913,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -931,7 +940,7 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -958,7 +967,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -985,7 +994,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1010,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>0.94500000000000006</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1100,7 +1109,7 @@
         <v>2.9699999999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1160,7 +1169,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1190,7 +1199,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1250,7 +1259,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1280,7 +1289,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1340,7 +1349,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -1400,7 +1409,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -1490,7 +1499,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -1550,7 +1559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -1580,23 +1589,43 @@
         <v>1.7500000000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2.3199999999999998</v>
+      </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I34" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="2">
         <f>SUM(J3:J33)</f>
-        <v>241.66099999999997</v>
+        <v>246.30099999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Stückliste.xlsx
+++ b/Hardware/Stückliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenny\Documents\GitHub\pro4e\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\GitHub\pro4e\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80069CDB-D6A8-4AB2-8F9C-64C33A4606EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5DBF3A-B99C-40AF-A838-7B47DBE63AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="450" windowWidth="19200" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="7920" windowWidth="21540" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -288,12 +288,6 @@
     <t>Verstärker</t>
   </si>
   <si>
-    <t>LMV796MF/NOPB</t>
-  </si>
-  <si>
-    <t>LMV796MF/NOPBCT-ND</t>
-  </si>
-  <si>
     <t>Quarzoszillator</t>
   </si>
   <si>
@@ -328,6 +322,12 @@
   </si>
   <si>
     <t>SER2207CT-ND</t>
+  </si>
+  <si>
+    <t>LMV797MM/NOPB</t>
+  </si>
+  <si>
+    <t>LMV797MM/NOPBCT-ND</t>
   </si>
 </sst>
 </file>
@@ -687,24 +687,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="36.453125" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -733,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -763,7 +763,7 @@
         <v>55.33</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -793,7 +793,7 @@
         <v>36.756</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -823,7 +823,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -853,7 +853,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -883,7 +883,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -913,7 +913,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -940,7 +940,7 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -967,7 +967,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -994,7 +994,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>0.94500000000000006</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>2.9699999999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -1477,13 +1477,13 @@
         <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1492,28 +1492,28 @@
         <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>1.46</v>
+        <v>1.82</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>27</v>
       </c>
       <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
         <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>89</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1529,21 +1529,21 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1559,21 +1559,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
         <v>93</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>95</v>
       </c>
       <c r="G31">
         <v>25</v>
@@ -1589,21 +1589,21 @@
         <v>1.7500000000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>30</v>
       </c>
       <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
         <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>98</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1619,13 +1619,13 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="2">
         <f>SUM(J3:J33)</f>
-        <v>246.30099999999996</v>
+        <v>247.02099999999996</v>
       </c>
     </row>
   </sheetData>
